--- a/downloaded_files/PHYS102_Lecture-35331.xlsx
+++ b/downloaded_files/PHYS102_Lecture-35331.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -220,6 +220,15 @@
   </x:si>
   <x:si>
     <x:t>mohamed ramadan fawzy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250195</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد عمرو عبدالمنعم عبداللطيف</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Amr Abdel Moneim Abdel Latif</x:t>
   </x:si>
   <x:si>
     <x:t>1240144</x:t>
@@ -380,7 +389,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -680,7 +689,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T27"/>
+  <x:dimension ref="A1:T28"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -690,7 +699,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="33.270625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="41.900625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -1443,7 +1452,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6658883449</x:v>
+        <x:v>45919.7232276273</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1475,7 +1484,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45908.4148616088</x:v>
+        <x:v>45907.6658883449</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1507,7 +1516,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45908.4244289352</x:v>
+        <x:v>45908.4148616088</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1539,7 +1548,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45908.4370927894</x:v>
+        <x:v>45908.4244289352</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1571,7 +1580,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6650471065</x:v>
+        <x:v>45908.4370927894</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1588,6 +1597,38 @@
       <x:c r="R27" s="2" t="s"/>
       <x:c r="S27" s="2" t="s"/>
       <x:c r="T27" s="2" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:20">
+      <x:c r="A28" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B28" s="2" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="D28" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="E28" s="3">
+        <x:v>45907.6650471065</x:v>
+      </x:c>
+      <x:c r="F28" s="2" t="s"/>
+      <x:c r="G28" s="2" t="s"/>
+      <x:c r="H28" s="2" t="s"/>
+      <x:c r="I28" s="2" t="s"/>
+      <x:c r="J28" s="2" t="s"/>
+      <x:c r="K28" s="2" t="s"/>
+      <x:c r="L28" s="2" t="s"/>
+      <x:c r="M28" s="2" t="s"/>
+      <x:c r="N28" s="2" t="s"/>
+      <x:c r="O28" s="2" t="s"/>
+      <x:c r="P28" s="2" t="s"/>
+      <x:c r="Q28" s="2" t="s"/>
+      <x:c r="R28" s="2" t="s"/>
+      <x:c r="S28" s="2" t="s"/>
+      <x:c r="T28" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/PHYS102_Lecture-35331.xlsx
+++ b/downloaded_files/PHYS102_Lecture-35331.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -78,6 +78,15 @@
     <x:t>Jody Emad Fathy Elsayed Selyman</x:t>
   </x:si>
   <x:si>
+    <x:t>4250170</x:t>
+  </x:si>
+  <x:si>
+    <x:t>حازم عصمت محمود اسماعيل احمد ابوجبل</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hazem Essmat</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240224</x:t>
   </x:si>
   <x:si>
@@ -121,6 +130,33 @@
   </x:si>
   <x:si>
     <x:t>Abdelbaky Ahmed Abdelbaky Ahmed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250178</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن سيد عبدالرحيم احمد عطية</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdul Rahman Sayed Abdul Rahim Ahmed Attia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250180</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالله فريد عبدالله محمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdullah Farid Abdullah Mohammed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250183</x:t>
+  </x:si>
+  <x:si>
+    <x:t>على محمود نجاح مكاوى خلف</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ali Mahmoud Najah Makkawi Khalaf</x:t>
   </x:si>
   <x:si>
     <x:t>1240337</x:t>
@@ -389,7 +425,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -689,7 +725,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T28"/>
+  <x:dimension ref="A1:T32"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -698,7 +734,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="33.270625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="41.900625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="42.380625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -940,7 +976,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6651474537</x:v>
+        <x:v>45921.6244441782</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -972,7 +1008,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45908.4151870718</x:v>
+        <x:v>45907.6651474537</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1004,7 +1040,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45908.4149354167</x:v>
+        <x:v>45908.4151870718</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1036,7 +1072,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45908.4198863426</x:v>
+        <x:v>45908.4149354167</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1068,7 +1104,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45908.4343585995</x:v>
+        <x:v>45908.4198863426</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1100,7 +1136,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6648382292</x:v>
+        <x:v>45908.4343585995</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1132,7 +1168,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6662529745</x:v>
+        <x:v>45921.6074469097</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1164,7 +1200,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45908.4328070255</x:v>
+        <x:v>45921.614566169</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1196,7 +1232,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45908.4149893519</x:v>
+        <x:v>45921.6102549769</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1228,7 +1264,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6655778935</x:v>
+        <x:v>45907.6648382292</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1260,7 +1296,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45908.4336464931</x:v>
+        <x:v>45907.6662529745</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1292,7 +1328,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6670297106</x:v>
+        <x:v>45908.4328070255</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1324,7 +1360,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6711292824</x:v>
+        <x:v>45908.4149893519</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1356,7 +1392,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45908.4156501505</x:v>
+        <x:v>45907.6655778935</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1388,7 +1424,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6765831829</x:v>
+        <x:v>45908.4336464931</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1420,7 +1456,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6651053241</x:v>
+        <x:v>45907.6670297106</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1452,7 +1488,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45919.7232276273</x:v>
+        <x:v>45907.6711292824</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1484,7 +1520,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6658883449</x:v>
+        <x:v>45908.4156501505</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1516,7 +1552,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45908.4148616088</x:v>
+        <x:v>45907.6765831829</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1548,7 +1584,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45908.4244289352</x:v>
+        <x:v>45907.6651053241</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1580,7 +1616,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45908.4370927894</x:v>
+        <x:v>45919.7232276273</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1612,7 +1648,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6650471065</x:v>
+        <x:v>45907.6658883449</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1629,6 +1665,134 @@
       <x:c r="R28" s="2" t="s"/>
       <x:c r="S28" s="2" t="s"/>
       <x:c r="T28" s="2" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:20">
+      <x:c r="A29" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B29" s="2" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D29" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="E29" s="3">
+        <x:v>45908.4148616088</x:v>
+      </x:c>
+      <x:c r="F29" s="2" t="s"/>
+      <x:c r="G29" s="2" t="s"/>
+      <x:c r="H29" s="2" t="s"/>
+      <x:c r="I29" s="2" t="s"/>
+      <x:c r="J29" s="2" t="s"/>
+      <x:c r="K29" s="2" t="s"/>
+      <x:c r="L29" s="2" t="s"/>
+      <x:c r="M29" s="2" t="s"/>
+      <x:c r="N29" s="2" t="s"/>
+      <x:c r="O29" s="2" t="s"/>
+      <x:c r="P29" s="2" t="s"/>
+      <x:c r="Q29" s="2" t="s"/>
+      <x:c r="R29" s="2" t="s"/>
+      <x:c r="S29" s="2" t="s"/>
+      <x:c r="T29" s="2" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:20">
+      <x:c r="A30" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B30" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D30" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="E30" s="3">
+        <x:v>45908.4244289352</x:v>
+      </x:c>
+      <x:c r="F30" s="2" t="s"/>
+      <x:c r="G30" s="2" t="s"/>
+      <x:c r="H30" s="2" t="s"/>
+      <x:c r="I30" s="2" t="s"/>
+      <x:c r="J30" s="2" t="s"/>
+      <x:c r="K30" s="2" t="s"/>
+      <x:c r="L30" s="2" t="s"/>
+      <x:c r="M30" s="2" t="s"/>
+      <x:c r="N30" s="2" t="s"/>
+      <x:c r="O30" s="2" t="s"/>
+      <x:c r="P30" s="2" t="s"/>
+      <x:c r="Q30" s="2" t="s"/>
+      <x:c r="R30" s="2" t="s"/>
+      <x:c r="S30" s="2" t="s"/>
+      <x:c r="T30" s="2" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:20">
+      <x:c r="A31" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B31" s="2" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="D31" s="2" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="E31" s="3">
+        <x:v>45908.4370927894</x:v>
+      </x:c>
+      <x:c r="F31" s="2" t="s"/>
+      <x:c r="G31" s="2" t="s"/>
+      <x:c r="H31" s="2" t="s"/>
+      <x:c r="I31" s="2" t="s"/>
+      <x:c r="J31" s="2" t="s"/>
+      <x:c r="K31" s="2" t="s"/>
+      <x:c r="L31" s="2" t="s"/>
+      <x:c r="M31" s="2" t="s"/>
+      <x:c r="N31" s="2" t="s"/>
+      <x:c r="O31" s="2" t="s"/>
+      <x:c r="P31" s="2" t="s"/>
+      <x:c r="Q31" s="2" t="s"/>
+      <x:c r="R31" s="2" t="s"/>
+      <x:c r="S31" s="2" t="s"/>
+      <x:c r="T31" s="2" t="s"/>
+    </x:row>
+    <x:row r="32" spans="1:20">
+      <x:c r="A32" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B32" s="2" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="C32" s="2" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="D32" s="2" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="E32" s="3">
+        <x:v>45907.6650471065</x:v>
+      </x:c>
+      <x:c r="F32" s="2" t="s"/>
+      <x:c r="G32" s="2" t="s"/>
+      <x:c r="H32" s="2" t="s"/>
+      <x:c r="I32" s="2" t="s"/>
+      <x:c r="J32" s="2" t="s"/>
+      <x:c r="K32" s="2" t="s"/>
+      <x:c r="L32" s="2" t="s"/>
+      <x:c r="M32" s="2" t="s"/>
+      <x:c r="N32" s="2" t="s"/>
+      <x:c r="O32" s="2" t="s"/>
+      <x:c r="P32" s="2" t="s"/>
+      <x:c r="Q32" s="2" t="s"/>
+      <x:c r="R32" s="2" t="s"/>
+      <x:c r="S32" s="2" t="s"/>
+      <x:c r="T32" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/PHYS102_Lecture-35331.xlsx
+++ b/downloaded_files/PHYS102_Lecture-35331.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -33,6 +33,15 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
+    <x:t>4250161</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ابراهيم حسن كامل احمد قاسم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ibrahim Hassan Kamel Ahmed Qasim</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240208</x:t>
   </x:si>
   <x:si>
@@ -58,6 +67,15 @@
   </x:si>
   <x:si>
     <x:t>Basel Mahmoud Younes Ahmed Mouhamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250169</x:t>
+  </x:si>
+  <x:si>
+    <x:t>تسنيم رضا محمد عبدالحميد السيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tasneem Reda Mohamed Abdel Hamid El Sayed</x:t>
   </x:si>
   <x:si>
     <x:t>1240044</x:t>
@@ -425,7 +443,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -725,7 +743,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T32"/>
+  <x:dimension ref="A1:T34"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -734,7 +752,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="33.270625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="42.380625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="42.550625000000004" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -816,7 +834,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45908.4400692477</x:v>
+        <x:v>45922.3696577546</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -848,7 +866,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45907.6651261574</x:v>
+        <x:v>45908.4400692477</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -880,7 +898,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.665459456</x:v>
+        <x:v>45907.6651261574</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -912,7 +930,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.6666383449</x:v>
+        <x:v>45907.665459456</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -944,7 +962,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45908.4178056366</x:v>
+        <x:v>45922.3727138889</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -976,7 +994,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45921.6244441782</x:v>
+        <x:v>45907.6666383449</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1008,7 +1026,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6651474537</x:v>
+        <x:v>45908.4178056366</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1040,7 +1058,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45908.4151870718</x:v>
+        <x:v>45921.6244441782</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1072,7 +1090,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45908.4149354167</x:v>
+        <x:v>45907.6651474537</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1104,7 +1122,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45908.4198863426</x:v>
+        <x:v>45908.4151870718</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1136,7 +1154,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45908.4343585995</x:v>
+        <x:v>45908.4149354167</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1168,7 +1186,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45921.6074469097</x:v>
+        <x:v>45908.4198863426</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1200,7 +1218,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45921.614566169</x:v>
+        <x:v>45908.4343585995</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1232,7 +1250,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45921.6102549769</x:v>
+        <x:v>45921.6074469097</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1264,7 +1282,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6648382292</x:v>
+        <x:v>45921.614566169</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1296,7 +1314,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6662529745</x:v>
+        <x:v>45921.6102549769</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1328,7 +1346,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45908.4328070255</x:v>
+        <x:v>45907.6648382292</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1360,7 +1378,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45908.4149893519</x:v>
+        <x:v>45907.6662529745</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1392,7 +1410,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6655778935</x:v>
+        <x:v>45908.4328070255</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1424,7 +1442,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45908.4336464931</x:v>
+        <x:v>45908.4149893519</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1456,7 +1474,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6670297106</x:v>
+        <x:v>45907.6655778935</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1488,7 +1506,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6711292824</x:v>
+        <x:v>45908.4336464931</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1520,7 +1538,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45908.4156501505</x:v>
+        <x:v>45907.6670297106</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1552,7 +1570,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6765831829</x:v>
+        <x:v>45907.6711292824</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1584,7 +1602,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6651053241</x:v>
+        <x:v>45908.4156501505</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1616,7 +1634,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45919.7232276273</x:v>
+        <x:v>45907.6765831829</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1648,7 +1666,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6658883449</x:v>
+        <x:v>45907.6651053241</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1680,7 +1698,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45908.4148616088</x:v>
+        <x:v>45919.7232276273</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1712,7 +1730,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45908.4244289352</x:v>
+        <x:v>45907.6658883449</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1744,7 +1762,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45908.4370927894</x:v>
+        <x:v>45908.4148616088</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1776,7 +1794,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6650471065</x:v>
+        <x:v>45908.4244289352</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1793,6 +1811,70 @@
       <x:c r="R32" s="2" t="s"/>
       <x:c r="S32" s="2" t="s"/>
       <x:c r="T32" s="2" t="s"/>
+    </x:row>
+    <x:row r="33" spans="1:20">
+      <x:c r="A33" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B33" s="2" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="C33" s="2" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="D33" s="2" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="E33" s="3">
+        <x:v>45908.4370927894</x:v>
+      </x:c>
+      <x:c r="F33" s="2" t="s"/>
+      <x:c r="G33" s="2" t="s"/>
+      <x:c r="H33" s="2" t="s"/>
+      <x:c r="I33" s="2" t="s"/>
+      <x:c r="J33" s="2" t="s"/>
+      <x:c r="K33" s="2" t="s"/>
+      <x:c r="L33" s="2" t="s"/>
+      <x:c r="M33" s="2" t="s"/>
+      <x:c r="N33" s="2" t="s"/>
+      <x:c r="O33" s="2" t="s"/>
+      <x:c r="P33" s="2" t="s"/>
+      <x:c r="Q33" s="2" t="s"/>
+      <x:c r="R33" s="2" t="s"/>
+      <x:c r="S33" s="2" t="s"/>
+      <x:c r="T33" s="2" t="s"/>
+    </x:row>
+    <x:row r="34" spans="1:20">
+      <x:c r="A34" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B34" s="2" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="C34" s="2" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="D34" s="2" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="E34" s="3">
+        <x:v>45907.6650471065</x:v>
+      </x:c>
+      <x:c r="F34" s="2" t="s"/>
+      <x:c r="G34" s="2" t="s"/>
+      <x:c r="H34" s="2" t="s"/>
+      <x:c r="I34" s="2" t="s"/>
+      <x:c r="J34" s="2" t="s"/>
+      <x:c r="K34" s="2" t="s"/>
+      <x:c r="L34" s="2" t="s"/>
+      <x:c r="M34" s="2" t="s"/>
+      <x:c r="N34" s="2" t="s"/>
+      <x:c r="O34" s="2" t="s"/>
+      <x:c r="P34" s="2" t="s"/>
+      <x:c r="Q34" s="2" t="s"/>
+      <x:c r="R34" s="2" t="s"/>
+      <x:c r="S34" s="2" t="s"/>
+      <x:c r="T34" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/PHYS102_Lecture-35331.xlsx
+++ b/downloaded_files/PHYS102_Lecture-35331.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -105,6 +105,15 @@
     <x:t>Hazem Essmat</x:t>
   </x:si>
   <x:si>
+    <x:t>4250173</x:t>
+  </x:si>
+  <x:si>
+    <x:t>زياد سعد محمد موسى احمد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ziad Saad</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240224</x:t>
   </x:si>
   <x:si>
@@ -265,6 +274,15 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Ahmed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250211</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد حمزه محمد زعزوع</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohammed Hamza Mohammed</x:t>
   </x:si>
   <x:si>
     <x:t>1240138</x:t>
@@ -443,7 +461,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -743,7 +761,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T34"/>
+  <x:dimension ref="A1:T36"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1090,7 +1108,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6651474537</x:v>
+        <x:v>45923.4748417824</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1122,7 +1140,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45908.4151870718</x:v>
+        <x:v>45907.6651474537</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1154,7 +1172,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45908.4149354167</x:v>
+        <x:v>45908.4151870718</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1186,7 +1204,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45908.4198863426</x:v>
+        <x:v>45908.4149354167</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1218,7 +1236,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45908.4343585995</x:v>
+        <x:v>45908.4198863426</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1250,7 +1268,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45921.6074469097</x:v>
+        <x:v>45908.4343585995</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1282,7 +1300,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45921.614566169</x:v>
+        <x:v>45921.6074469097</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1314,7 +1332,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45921.6102549769</x:v>
+        <x:v>45921.614566169</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1346,7 +1364,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6648382292</x:v>
+        <x:v>45921.6102549769</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1378,7 +1396,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6662529745</x:v>
+        <x:v>45907.6648382292</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1410,7 +1428,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45908.4328070255</x:v>
+        <x:v>45907.6662529745</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1442,7 +1460,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45908.4149893519</x:v>
+        <x:v>45908.4328070255</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1474,7 +1492,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6655778935</x:v>
+        <x:v>45908.4149893519</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1506,7 +1524,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45908.4336464931</x:v>
+        <x:v>45907.6655778935</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1538,7 +1556,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6670297106</x:v>
+        <x:v>45908.4336464931</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1570,7 +1588,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6711292824</x:v>
+        <x:v>45907.6670297106</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1602,7 +1620,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45908.4156501505</x:v>
+        <x:v>45907.6711292824</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1634,7 +1652,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6765831829</x:v>
+        <x:v>45908.4156501505</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1666,7 +1684,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6651053241</x:v>
+        <x:v>45907.6765831829</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1698,7 +1716,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45919.7232276273</x:v>
+        <x:v>45923.5143698264</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1730,7 +1748,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6658883449</x:v>
+        <x:v>45907.6651053241</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1762,7 +1780,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45908.4148616088</x:v>
+        <x:v>45919.7232276273</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1794,7 +1812,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45908.4244289352</x:v>
+        <x:v>45907.6658883449</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1826,7 +1844,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45908.4370927894</x:v>
+        <x:v>45908.4148616088</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1858,7 +1876,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6650471065</x:v>
+        <x:v>45908.4244289352</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1876,6 +1894,70 @@
       <x:c r="S34" s="2" t="s"/>
       <x:c r="T34" s="2" t="s"/>
     </x:row>
+    <x:row r="35" spans="1:20">
+      <x:c r="A35" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B35" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="C35" s="2" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="D35" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="E35" s="3">
+        <x:v>45908.4370927894</x:v>
+      </x:c>
+      <x:c r="F35" s="2" t="s"/>
+      <x:c r="G35" s="2" t="s"/>
+      <x:c r="H35" s="2" t="s"/>
+      <x:c r="I35" s="2" t="s"/>
+      <x:c r="J35" s="2" t="s"/>
+      <x:c r="K35" s="2" t="s"/>
+      <x:c r="L35" s="2" t="s"/>
+      <x:c r="M35" s="2" t="s"/>
+      <x:c r="N35" s="2" t="s"/>
+      <x:c r="O35" s="2" t="s"/>
+      <x:c r="P35" s="2" t="s"/>
+      <x:c r="Q35" s="2" t="s"/>
+      <x:c r="R35" s="2" t="s"/>
+      <x:c r="S35" s="2" t="s"/>
+      <x:c r="T35" s="2" t="s"/>
+    </x:row>
+    <x:row r="36" spans="1:20">
+      <x:c r="A36" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B36" s="2" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="C36" s="2" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="D36" s="2" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="E36" s="3">
+        <x:v>45907.6650471065</x:v>
+      </x:c>
+      <x:c r="F36" s="2" t="s"/>
+      <x:c r="G36" s="2" t="s"/>
+      <x:c r="H36" s="2" t="s"/>
+      <x:c r="I36" s="2" t="s"/>
+      <x:c r="J36" s="2" t="s"/>
+      <x:c r="K36" s="2" t="s"/>
+      <x:c r="L36" s="2" t="s"/>
+      <x:c r="M36" s="2" t="s"/>
+      <x:c r="N36" s="2" t="s"/>
+      <x:c r="O36" s="2" t="s"/>
+      <x:c r="P36" s="2" t="s"/>
+      <x:c r="Q36" s="2" t="s"/>
+      <x:c r="R36" s="2" t="s"/>
+      <x:c r="S36" s="2" t="s"/>
+      <x:c r="T36" s="2" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -1888,6 +1970,9 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Modern Physics (PHYS102) Location : [20509]20509-45-الجيزة الرئيسي Time : Wednesday(9:11)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
+  <x:rowBreaks count="1" manualBreakCount="1">
+    <x:brk id="35" max="1048576" man="1"/>
+  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/PHYS102_Lecture-35331.xlsx
+++ b/downloaded_files/PHYS102_Lecture-35331.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -159,15 +159,6 @@
     <x:t>Abdelbaky Ahmed Abdelbaky Ahmed</x:t>
   </x:si>
   <x:si>
-    <x:t>4250178</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالرحمن سيد عبدالرحيم احمد عطية</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdul Rahman Sayed Abdul Rahim Ahmed Attia</x:t>
-  </x:si>
-  <x:si>
     <x:t>4250180</x:t>
   </x:si>
   <x:si>
@@ -292,15 +283,6 @@
   </x:si>
   <x:si>
     <x:t>mohamed ramadan fawzy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4250195</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد عمرو عبدالمنعم عبداللطيف</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed Amr Abdel Moneim Abdel Latif</x:t>
   </x:si>
   <x:si>
     <x:t>1240144</x:t>
@@ -461,7 +443,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -761,7 +743,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T36"/>
+  <x:dimension ref="A1:T34"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1300,7 +1282,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45921.6074469097</x:v>
+        <x:v>45921.614566169</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1332,7 +1314,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45921.614566169</x:v>
+        <x:v>45921.6102549769</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1364,7 +1346,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45921.6102549769</x:v>
+        <x:v>45907.6648382292</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1396,7 +1378,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6648382292</x:v>
+        <x:v>45907.6662529745</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1428,7 +1410,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6662529745</x:v>
+        <x:v>45908.4328070255</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1460,7 +1442,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45908.4328070255</x:v>
+        <x:v>45908.4149893519</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1492,7 +1474,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45908.4149893519</x:v>
+        <x:v>45907.6655778935</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1524,7 +1506,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6655778935</x:v>
+        <x:v>45908.4336464931</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1556,7 +1538,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45908.4336464931</x:v>
+        <x:v>45907.6670297106</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1588,7 +1570,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6670297106</x:v>
+        <x:v>45907.6711292824</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1620,7 +1602,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6711292824</x:v>
+        <x:v>45908.4156501505</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1652,7 +1634,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45908.4156501505</x:v>
+        <x:v>45907.6765831829</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1684,7 +1666,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6765831829</x:v>
+        <x:v>45923.5143698264</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1716,7 +1698,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45923.5143698264</x:v>
+        <x:v>45907.6651053241</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1748,7 +1730,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6651053241</x:v>
+        <x:v>45907.6658883449</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1780,7 +1762,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45919.7232276273</x:v>
+        <x:v>45908.4148616088</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1812,7 +1794,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6658883449</x:v>
+        <x:v>45908.4244289352</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1844,7 +1826,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45908.4148616088</x:v>
+        <x:v>45908.4370927894</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1876,7 +1858,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45908.4244289352</x:v>
+        <x:v>45907.6650471065</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1894,70 +1876,6 @@
       <x:c r="S34" s="2" t="s"/>
       <x:c r="T34" s="2" t="s"/>
     </x:row>
-    <x:row r="35" spans="1:20">
-      <x:c r="A35" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B35" s="2" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="C35" s="2" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="D35" s="2" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="E35" s="3">
-        <x:v>45908.4370927894</x:v>
-      </x:c>
-      <x:c r="F35" s="2" t="s"/>
-      <x:c r="G35" s="2" t="s"/>
-      <x:c r="H35" s="2" t="s"/>
-      <x:c r="I35" s="2" t="s"/>
-      <x:c r="J35" s="2" t="s"/>
-      <x:c r="K35" s="2" t="s"/>
-      <x:c r="L35" s="2" t="s"/>
-      <x:c r="M35" s="2" t="s"/>
-      <x:c r="N35" s="2" t="s"/>
-      <x:c r="O35" s="2" t="s"/>
-      <x:c r="P35" s="2" t="s"/>
-      <x:c r="Q35" s="2" t="s"/>
-      <x:c r="R35" s="2" t="s"/>
-      <x:c r="S35" s="2" t="s"/>
-      <x:c r="T35" s="2" t="s"/>
-    </x:row>
-    <x:row r="36" spans="1:20">
-      <x:c r="A36" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B36" s="2" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="C36" s="2" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="D36" s="2" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="E36" s="3">
-        <x:v>45907.6650471065</x:v>
-      </x:c>
-      <x:c r="F36" s="2" t="s"/>
-      <x:c r="G36" s="2" t="s"/>
-      <x:c r="H36" s="2" t="s"/>
-      <x:c r="I36" s="2" t="s"/>
-      <x:c r="J36" s="2" t="s"/>
-      <x:c r="K36" s="2" t="s"/>
-      <x:c r="L36" s="2" t="s"/>
-      <x:c r="M36" s="2" t="s"/>
-      <x:c r="N36" s="2" t="s"/>
-      <x:c r="O36" s="2" t="s"/>
-      <x:c r="P36" s="2" t="s"/>
-      <x:c r="Q36" s="2" t="s"/>
-      <x:c r="R36" s="2" t="s"/>
-      <x:c r="S36" s="2" t="s"/>
-      <x:c r="T36" s="2" t="s"/>
-    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -1970,9 +1888,6 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Modern Physics (PHYS102) Location : [20509]20509-45-الجيزة الرئيسي Time : Wednesday(9:11)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
-  <x:rowBreaks count="1" manualBreakCount="1">
-    <x:brk id="35" max="1048576" man="1"/>
-  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/PHYS102_Lecture-35331.xlsx
+++ b/downloaded_files/PHYS102_Lecture-35331.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -159,6 +159,15 @@
     <x:t>Abdelbaky Ahmed Abdelbaky Ahmed</x:t>
   </x:si>
   <x:si>
+    <x:t>4250178</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالرحمن سيد عبدالرحيم احمد عطية</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdul Rahman Sayed Abdul Rahim Ahmed Attia</x:t>
+  </x:si>
+  <x:si>
     <x:t>4250180</x:t>
   </x:si>
   <x:si>
@@ -301,6 +310,15 @@
   </x:si>
   <x:si>
     <x:t>Maryem Hatem Mohamed Emara</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240150</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مريم سمير ماهر مسيحه صليب</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mariam Samir Maher Massiha</x:t>
   </x:si>
   <x:si>
     <x:t>1240269</x:t>
@@ -443,7 +461,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E34" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -743,7 +761,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T34"/>
+  <x:dimension ref="A1:T36"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1282,7 +1300,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45921.614566169</x:v>
+        <x:v>45929.4835323727</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1314,7 +1332,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45921.6102549769</x:v>
+        <x:v>45921.614566169</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1346,7 +1364,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6648382292</x:v>
+        <x:v>45921.6102549769</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1378,7 +1396,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6662529745</x:v>
+        <x:v>45907.6648382292</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1410,7 +1428,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45908.4328070255</x:v>
+        <x:v>45907.6662529745</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1442,7 +1460,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45908.4149893519</x:v>
+        <x:v>45908.4328070255</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1474,7 +1492,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6655778935</x:v>
+        <x:v>45908.4149893519</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1506,7 +1524,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45908.4336464931</x:v>
+        <x:v>45907.6655778935</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1538,7 +1556,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6670297106</x:v>
+        <x:v>45908.4336464931</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1570,7 +1588,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6711292824</x:v>
+        <x:v>45907.6670297106</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1602,7 +1620,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45908.4156501505</x:v>
+        <x:v>45907.6711292824</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1634,7 +1652,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6765831829</x:v>
+        <x:v>45908.4156501505</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1666,7 +1684,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45923.5143698264</x:v>
+        <x:v>45907.6765831829</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1698,7 +1716,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6651053241</x:v>
+        <x:v>45923.5143698264</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1730,7 +1748,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6658883449</x:v>
+        <x:v>45907.6651053241</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1762,7 +1780,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45908.4148616088</x:v>
+        <x:v>45907.6658883449</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1794,7 +1812,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45908.4244289352</x:v>
+        <x:v>45908.4148616088</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1826,7 +1844,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45908.4370927894</x:v>
+        <x:v>45929.5820105324</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1858,7 +1876,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6650471065</x:v>
+        <x:v>45908.4244289352</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1876,6 +1894,70 @@
       <x:c r="S34" s="2" t="s"/>
       <x:c r="T34" s="2" t="s"/>
     </x:row>
+    <x:row r="35" spans="1:20">
+      <x:c r="A35" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B35" s="2" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="C35" s="2" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="D35" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="E35" s="3">
+        <x:v>45908.4370927894</x:v>
+      </x:c>
+      <x:c r="F35" s="2" t="s"/>
+      <x:c r="G35" s="2" t="s"/>
+      <x:c r="H35" s="2" t="s"/>
+      <x:c r="I35" s="2" t="s"/>
+      <x:c r="J35" s="2" t="s"/>
+      <x:c r="K35" s="2" t="s"/>
+      <x:c r="L35" s="2" t="s"/>
+      <x:c r="M35" s="2" t="s"/>
+      <x:c r="N35" s="2" t="s"/>
+      <x:c r="O35" s="2" t="s"/>
+      <x:c r="P35" s="2" t="s"/>
+      <x:c r="Q35" s="2" t="s"/>
+      <x:c r="R35" s="2" t="s"/>
+      <x:c r="S35" s="2" t="s"/>
+      <x:c r="T35" s="2" t="s"/>
+    </x:row>
+    <x:row r="36" spans="1:20">
+      <x:c r="A36" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B36" s="2" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="C36" s="2" t="s">
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="D36" s="2" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="E36" s="3">
+        <x:v>45907.6650471065</x:v>
+      </x:c>
+      <x:c r="F36" s="2" t="s"/>
+      <x:c r="G36" s="2" t="s"/>
+      <x:c r="H36" s="2" t="s"/>
+      <x:c r="I36" s="2" t="s"/>
+      <x:c r="J36" s="2" t="s"/>
+      <x:c r="K36" s="2" t="s"/>
+      <x:c r="L36" s="2" t="s"/>
+      <x:c r="M36" s="2" t="s"/>
+      <x:c r="N36" s="2" t="s"/>
+      <x:c r="O36" s="2" t="s"/>
+      <x:c r="P36" s="2" t="s"/>
+      <x:c r="Q36" s="2" t="s"/>
+      <x:c r="R36" s="2" t="s"/>
+      <x:c r="S36" s="2" t="s"/>
+      <x:c r="T36" s="2" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
@@ -1888,6 +1970,9 @@
     <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Lecture Modern Physics (PHYS102) Location : [20509]20509-45-الجيزة الرئيسي Time : Wednesday(9:11)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
+  <x:rowBreaks count="1" manualBreakCount="1">
+    <x:brk id="35" max="1048576" man="1"/>
+  </x:rowBreaks>
   <x:tableParts count="1">
     <x:tablePart r:id="rId5"/>
   </x:tableParts>

--- a/downloaded_files/PHYS102_Lecture-35331.xlsx
+++ b/downloaded_files/PHYS102_Lecture-35331.xlsx
@@ -165,7 +165,7 @@
     <x:t>عبدالرحمن سيد عبدالرحيم احمد عطية</x:t>
   </x:si>
   <x:si>
-    <x:t>Abdul Rahman Sayed Abdul Rahim Ahmed Attia</x:t>
+    <x:t>Abdelrahman Sayed Abdelraheem Ahmed Attia</x:t>
   </x:si>
   <x:si>
     <x:t>4250180</x:t>
